--- a/Server/masterdata/ManualTests/Listák.xlsx
+++ b/Server/masterdata/ManualTests/Listák.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Név" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ID" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Doboz" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Szám" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Válasz" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
         <v>2987</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1915</v>
+        <v>1695</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>45</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>3848</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1695</v>
+        <v>1915</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>47</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="H35" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -2578,32 +2578,32 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="8" t="n">
-        <v>6036</v>
+        <v>5826</v>
       </c>
       <c r="B54" s="9" t="n">
-        <v>1320</v>
+        <v>1652</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China Tower</t>
+          <t>Nagy Iván-harangtorony</t>
         </is>
       </c>
       <c r="E54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China tower</t>
+          <t>Ivan The Great Bell tower</t>
         </is>
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
-          <t>Kína, Hong Kong</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="G54" s="10" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="H54" s="11" t="inlineStr">
@@ -2614,37 +2614,37 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4" t="n">
-        <v>6114</v>
+        <v>6036</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="H55" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>torony</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>6509</v>
       </c>
       <c r="B62" s="9" t="n">
-        <v>1806</v>
+        <v>1853</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>86</v>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>Szmolnij kolostor</t>
+          <t>Szmolnij-székesegyház</t>
         </is>
       </c>
       <c r="E64" s="10" t="inlineStr">
         <is>
-          <t>Smolny Convent</t>
+          <t>Smolny Cathedral</t>
         </is>
       </c>
       <c r="F64" s="10" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="H64" s="11" t="inlineStr">
         <is>
-          <t>vallás/egyéb</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="H67" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="H71" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="H89" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>2987</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1915</v>
+        <v>1695</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>45</v>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
         <v>3848</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1695</v>
+        <v>1915</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>47</v>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="H35" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -6265,32 +6265,32 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="8" t="n">
-        <v>6036</v>
+        <v>5826</v>
       </c>
       <c r="B54" s="9" t="n">
-        <v>1320</v>
+        <v>1652</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China Tower</t>
+          <t>Nagy Iván-harangtorony</t>
         </is>
       </c>
       <c r="E54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China tower</t>
+          <t>Ivan The Great Bell tower</t>
         </is>
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
-          <t>Kína, Hong Kong</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="G54" s="10" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="H54" s="11" t="inlineStr">
@@ -6301,37 +6301,37 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4" t="n">
-        <v>6114</v>
+        <v>6036</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="H55" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>torony</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
         <v>6509</v>
       </c>
       <c r="B62" s="9" t="n">
-        <v>1806</v>
+        <v>1853</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>86</v>
@@ -6635,12 +6635,12 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>Szmolnij kolostor</t>
+          <t>Szmolnij-székesegyház</t>
         </is>
       </c>
       <c r="E64" s="10" t="inlineStr">
         <is>
-          <t>Smolny Convent</t>
+          <t>Smolny Cathedral</t>
         </is>
       </c>
       <c r="F64" s="10" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="H64" s="11" t="inlineStr">
         <is>
-          <t>vallás/egyéb</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="H67" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="H71" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="H89" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -8615,7 +8615,7 @@
         <v>2987</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1915</v>
+        <v>1695</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>45</v>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
         <v>3848</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1695</v>
+        <v>1915</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>47</v>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="H35" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -9952,32 +9952,32 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="8" t="n">
-        <v>6036</v>
+        <v>5826</v>
       </c>
       <c r="B54" s="9" t="n">
-        <v>1320</v>
+        <v>1652</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China Tower</t>
+          <t>Nagy Iván-harangtorony</t>
         </is>
       </c>
       <c r="E54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China tower</t>
+          <t>Ivan The Great Bell tower</t>
         </is>
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
-          <t>Kína, Hong Kong</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="G54" s="10" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="H54" s="11" t="inlineStr">
@@ -9988,37 +9988,37 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4" t="n">
-        <v>6114</v>
+        <v>6036</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="H55" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>torony</t>
         </is>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
         <v>6509</v>
       </c>
       <c r="B62" s="9" t="n">
-        <v>1806</v>
+        <v>1853</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>86</v>
@@ -10322,12 +10322,12 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>Szmolnij kolostor</t>
+          <t>Szmolnij-székesegyház</t>
         </is>
       </c>
       <c r="E64" s="10" t="inlineStr">
         <is>
-          <t>Smolny Convent</t>
+          <t>Smolny Cathedral</t>
         </is>
       </c>
       <c r="F64" s="10" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="H64" s="11" t="inlineStr">
         <is>
-          <t>vallás/egyéb</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="H67" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="H71" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="H89" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
         <v>2987</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1915</v>
+        <v>1695</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>45</v>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -12664,7 +12664,7 @@
         <v>3848</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1695</v>
+        <v>1915</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>47</v>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="H35" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -13639,32 +13639,32 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="8" t="n">
-        <v>6036</v>
+        <v>5826</v>
       </c>
       <c r="B54" s="9" t="n">
-        <v>1320</v>
+        <v>1652</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China Tower</t>
+          <t>Nagy Iván-harangtorony</t>
         </is>
       </c>
       <c r="E54" s="10" t="inlineStr">
         <is>
-          <t>Bank of China tower</t>
+          <t>Ivan The Great Bell tower</t>
         </is>
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
-          <t>Kína, Hong Kong</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="G54" s="10" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="H54" s="11" t="inlineStr">
@@ -13675,37 +13675,37 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4" t="n">
-        <v>6114</v>
+        <v>6036</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>1382</v>
+        <v>1320</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="H55" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>torony</t>
         </is>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
         <v>6509</v>
       </c>
       <c r="B62" s="9" t="n">
-        <v>1806</v>
+        <v>1853</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>86</v>
@@ -14009,12 +14009,12 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>Szmolnij kolostor</t>
+          <t>Szmolnij-székesegyház</t>
         </is>
       </c>
       <c r="E64" s="10" t="inlineStr">
         <is>
-          <t>Smolny Convent</t>
+          <t>Smolny Cathedral</t>
         </is>
       </c>
       <c r="F64" s="10" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="H64" s="11" t="inlineStr">
         <is>
-          <t>vallás/egyéb</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="H67" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="H71" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="H89" s="7" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>vallás/katedrális</t>
+          <t>vallás/székesegyház</t>
         </is>
       </c>
     </row>
